--- a/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
+++ b/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C01D7-FB8E-D84A-8ECB-9F1BB35618A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,10 +24,19 @@
     <definedName name="hours_per_year">'Conversion Factors'!$A$1</definedName>
     <definedName name="usd_year_conv">'Conversion Factors'!$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -277,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -387,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,29 +678,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.86328125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="19">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,230 +711,230 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -928,20 +942,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="1" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -961,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -981,7 +995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1029,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1033,7 +1047,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>17</v>
@@ -1105,7 +1119,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1139,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1177,8 +1191,8 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1198,14 +1212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>24*365</f>
         <v>8760</v>
@@ -1214,7 +1228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3412.14</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.91400000000000003</v>
       </c>
@@ -1236,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1244,12 +1258,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1356,7 +1370,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>1.3760295531402741E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1652,7 @@
         <v>2.7826375407947768E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1779,7 +1793,7 @@
         <v>8.1644420152989595E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1934,7 @@
         <v>8.1644420152989595E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2074,12 +2088,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
@@ -2186,7 +2200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2327,7 +2341,7 @@
         <v>2.0640443297104109E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>1.307839644173545E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2623,7 @@
         <v>4.0822210076494796E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2750,7 +2764,7 @@
         <v>4.0822210076494796E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>

--- a/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
+++ b/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hpec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/hpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C01D7-FB8E-D84A-8ECB-9F1BB35618A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22DC0F5-3177-2C46-9BC5-F92E00EC1BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
